--- a/tasks/mcra/examples/task_input/test_mcra_action_template/Data/Populations.xlsx
+++ b/tasks/mcra/examples/task_input/test_mcra_action_template/Data/Populations.xlsx
@@ -626,39 +626,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>POP1</t>
+          <t>POP_EU_ADULT_2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adults</t>
+          <t>Adults EU 2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Test adult population</t>
+          <t>EU adult population (synthetic) for 2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
